--- a/data/2020-08-06/texas.xlsx
+++ b/data/2020-08-06/texas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6BEAFF3-48DE-44D3-8751-8210D1A7016F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{815FDAC3-F6BA-42D6-80A5-7BC8AF19598C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="353">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 8/05 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="353">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 8/06 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -818,7 +818,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/05 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/06 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -866,7 +866,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/05 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/06 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -878,7 +878,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/05 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/06 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -919,7 +919,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/05 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/06 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -940,7 +940,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 8/04 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 8/05 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -952,7 +952,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 8/05 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 8/06 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -973,7 +973,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 8/05 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 8/06 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -982,7 +982,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 8/05 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 8/06 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1034,10 +1034,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          38,144</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 8/05 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          38,950</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 8/06 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1049,7 +1049,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 8/05 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 8/06 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1070,16 +1070,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 8/05 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =           7,497</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 8/05 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 8/05 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 8/06 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =           7,803</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 8/06 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 8/06 at 9:30 AM CST</t>
   </si>
   <si>
     <t>* The total reported cases for 6/16/2020 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1094,6 +1094,9 @@
     <t>**** Texas is reporting 8,112 new confirmed cases for July 25. The Corpus Christi-Nueces County Public Health District has begun separating confirmed and probable cases, removing 2,092 probable cases from the county and statewide totals, resulting in a total number of confirmed cases of 375,846.</t>
   </si>
   <si>
+    <t>† Texas is reporting 5,839 new confirmed cases for Aug. 3, including 471 for Bexar County. The San Antonio Metropolitan Health District has removed some duplicate cases, leading to an overall decrease in the number of Bexar County cases. For more information, visit https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data.</t>
+  </si>
+  <si>
     <t>July 27: DSHS is now reporting COVID-19 fatality data based on death certificates. A fatality is counted as a COVID-19 fatality when the medical certifier attests on the death certificate that COVID-19 is a cause of death.</t>
   </si>
   <si>
@@ -1107,16 +1110,13 @@
   </si>
   <si>
     <t>†</t>
-  </si>
-  <si>
-    <t>† Texas is reporting 5,839 new confirmed cases for Aug. 3, including 471 for Bexar County. The San Antonio Metropolitan Health District has removed some duplicate cases, leading to an overall decrease in the number of Bexar County cases. For more information, visit https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="##,###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="###,##0"/>
@@ -1128,7 +1128,6 @@
     <numFmt numFmtId="172" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="173" formatCode="########&quot;%&quot;_);\(########&quot;%&quot;\)"/>
     <numFmt numFmtId="174" formatCode="########.0&quot;%&quot;_);\(########.0&quot;%&quot;\)"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1228,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1290,9 +1289,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1431,8 +1427,8 @@
   <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -1477,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -1488,10 +1484,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="C5" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1495,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1510,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1532,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C9" s="4">
         <v>16</v>
@@ -1543,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -1554,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -1576,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>1313</v>
+        <v>1344</v>
       </c>
       <c r="C13" s="4">
         <v>20</v>
@@ -1598,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C15" s="4">
         <v>9</v>
@@ -1609,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>3680</v>
+        <v>3733</v>
       </c>
       <c r="C16" s="4">
         <v>33</v>
@@ -1620,10 +1616,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>34238</v>
+        <v>34473</v>
       </c>
       <c r="C17" s="4">
-        <v>673</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1653,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -1664,10 +1660,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C21" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1675,10 +1671,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>6887</v>
+        <v>6988</v>
       </c>
       <c r="C22" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1682,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3953</v>
+        <v>3973</v>
       </c>
       <c r="C23" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1719,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1730,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="C27" s="4">
         <v>15</v>
@@ -1741,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="4">
         <v>6</v>
@@ -1752,10 +1748,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C29" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1763,10 +1759,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>1096</v>
+        <v>1118</v>
       </c>
       <c r="C30" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1770,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C31" s="4">
         <v>4</v>
@@ -1796,10 +1792,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>15118</v>
+        <v>15564</v>
       </c>
       <c r="C33" s="4">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C34" s="4">
         <v>5</v>
@@ -1829,10 +1825,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
@@ -1851,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1862,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>832</v>
+        <v>953</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
@@ -1873,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1884,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -1917,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1928,10 +1924,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>6738</v>
+        <v>6857</v>
       </c>
       <c r="C45" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1939,7 +1935,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -1950,7 +1946,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -1961,7 +1957,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1720</v>
+        <v>1763</v>
       </c>
       <c r="C48" s="4">
         <v>67</v>
@@ -1972,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -1994,7 +1990,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
@@ -2005,7 +2001,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="C52" s="4">
         <v>5</v>
@@ -2027,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -2038,7 +2034,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -2049,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2060,7 +2056,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2071,7 +2067,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C58" s="4">
         <v>5</v>
@@ -2082,10 +2078,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>52131</v>
+        <v>52639</v>
       </c>
       <c r="C59" s="4">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,7 +2089,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2104,7 +2100,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C61" s="4">
         <v>15</v>
@@ -2115,7 +2111,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="C62" s="4">
         <v>17</v>
@@ -2137,10 +2133,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>7127</v>
+        <v>7257</v>
       </c>
       <c r="C64" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,7 +2155,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4">
         <v>3</v>
@@ -2170,7 +2166,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2181,10 +2177,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,7 +2188,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2203,10 +2199,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>2367</v>
+        <v>2392</v>
       </c>
       <c r="C70" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2214,7 +2210,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2225,10 +2221,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>15427</v>
+        <v>15596</v>
       </c>
       <c r="C72" s="4">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,10 +2232,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>2691</v>
+        <v>2739</v>
       </c>
       <c r="C73" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2247,7 +2243,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C74" s="4">
         <v>5</v>
@@ -2258,7 +2254,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
@@ -2280,7 +2276,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C77" s="4">
         <v>14</v>
@@ -2302,7 +2298,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -2324,10 +2320,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>7867</v>
+        <v>8559</v>
       </c>
       <c r="C81" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2335,7 +2331,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2346,7 +2342,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2357,7 +2353,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
@@ -2368,7 +2364,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2379,10 +2375,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>9106</v>
+        <v>9168</v>
       </c>
       <c r="C86" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,7 +2389,7 @@
         <v>99</v>
       </c>
       <c r="C87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4">
         <v>5</v>
@@ -2434,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C91" s="4">
         <v>9</v>
@@ -2445,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -2456,10 +2452,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>1051</v>
+        <v>1092</v>
       </c>
       <c r="C93" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2463,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="C94" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2474,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C95" s="4">
         <v>20</v>
@@ -2489,10 +2485,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C96" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2500,7 +2496,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>1244</v>
+        <v>1257</v>
       </c>
       <c r="C97" s="4">
         <v>24</v>
@@ -2522,10 +2518,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C99" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2533,7 +2529,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2555,10 +2551,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="C102" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2566,10 +2562,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>79543</v>
+        <v>80914</v>
       </c>
       <c r="C103" s="4">
-        <v>1409</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2573,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C104" s="4">
         <v>22</v>
@@ -2588,7 +2584,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -2610,10 +2606,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>4931</v>
+        <v>4969</v>
       </c>
       <c r="C107" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2632,7 +2628,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C109" s="4">
         <v>11</v>
@@ -2643,10 +2639,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>18249</v>
+        <v>18699</v>
       </c>
       <c r="C110" s="4">
-        <v>510</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2657,7 +2653,7 @@
         <v>313</v>
       </c>
       <c r="C111" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2665,7 +2661,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C112" s="4">
         <v>4</v>
@@ -2676,7 +2672,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C113" s="4">
         <v>9</v>
@@ -2687,7 +2683,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -2698,7 +2694,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C115" s="4">
         <v>6</v>
@@ -2709,10 +2705,10 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C116" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2720,7 +2716,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C117" s="4">
         <v>2</v>
@@ -2731,7 +2727,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>1105</v>
+        <v>1137</v>
       </c>
       <c r="C118" s="4">
         <v>21</v>
@@ -2742,7 +2738,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119" s="4">
         <v>2</v>
@@ -2764,7 +2760,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2775,7 +2771,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C122" s="4">
         <v>5</v>
@@ -2786,7 +2782,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C123" s="4">
         <v>5</v>
@@ -2808,10 +2804,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>5721</v>
+        <v>5771</v>
       </c>
       <c r="C125" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2826,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C127" s="4">
         <v>13</v>
@@ -2841,7 +2837,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>1730</v>
+        <v>1760</v>
       </c>
       <c r="C128" s="4">
         <v>30</v>
@@ -2852,7 +2848,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2863,10 +2859,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>391</v>
+        <v>556</v>
       </c>
       <c r="C130" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2874,10 +2870,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>2007</v>
+        <v>2071</v>
       </c>
       <c r="C131" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,7 +2881,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C132" s="4">
         <v>4</v>
@@ -2918,7 +2914,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C135" s="4">
         <v>6</v>
@@ -2951,7 +2947,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2962,10 +2958,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C139" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2973,10 +2969,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C140" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2984,7 +2980,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
@@ -2995,10 +2991,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C142" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3006,7 +3002,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C143" s="4">
         <v>10</v>
@@ -3017,7 +3013,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C144" s="4">
         <v>2</v>
@@ -3028,7 +3024,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C145" s="4">
         <v>14</v>
@@ -3061,10 +3057,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="C148" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3072,7 +3068,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C149" s="4">
         <v>3</v>
@@ -3105,7 +3101,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
@@ -3127,10 +3123,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>5751</v>
+        <v>5811</v>
       </c>
       <c r="C154" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3145,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C156" s="4">
         <v>2</v>
@@ -3160,7 +3156,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C157" s="4">
         <v>8</v>
@@ -3171,10 +3167,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C158" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3182,7 +3178,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3193,10 +3189,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="C160" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3204,10 +3200,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>1852</v>
+        <v>2210</v>
       </c>
       <c r="C161" s="4">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3226,10 +3222,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>4694</v>
+        <v>4748</v>
       </c>
       <c r="C163" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3248,10 +3244,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C165" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3270,10 +3266,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>2423</v>
+        <v>2492</v>
       </c>
       <c r="C167" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3281,7 +3277,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -3303,7 +3299,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3314,7 +3310,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3325,7 +3321,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>6397</v>
+        <v>6459</v>
       </c>
       <c r="C172" s="4">
         <v>76</v>
@@ -3336,10 +3332,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="C173" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3347,7 +3343,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -3369,10 +3365,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="C176" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3380,7 +3376,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="C177" s="4">
         <v>8</v>
@@ -3391,7 +3387,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C178" s="4">
         <v>4</v>
@@ -3413,10 +3409,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>10410</v>
+        <v>10576</v>
       </c>
       <c r="C180" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3424,7 +3420,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3457,7 +3453,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C184" s="4">
         <v>6</v>
@@ -3468,7 +3464,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C185" s="4">
         <v>17</v>
@@ -3479,10 +3475,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="C186" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3490,7 +3486,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C187" s="4">
         <v>7</v>
@@ -3501,7 +3497,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -3512,7 +3508,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C189" s="4">
         <v>11</v>
@@ -3523,7 +3519,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3571</v>
+        <v>3607</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3534,7 +3530,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3545,7 +3541,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
@@ -3556,10 +3552,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1646</v>
+        <v>1683</v>
       </c>
       <c r="C193" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3578,10 +3574,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C195" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3589,7 +3585,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C196" s="4">
         <v>11</v>
@@ -3600,10 +3596,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C197" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3610,7 @@
         <v>216</v>
       </c>
       <c r="C198" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3633,7 +3629,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C200" s="4">
         <v>2</v>
@@ -3644,7 +3640,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="C201" s="4">
         <v>12</v>
@@ -3655,7 +3651,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C202" s="4">
         <v>1</v>
@@ -3666,7 +3662,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3688,7 +3684,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C205" s="4">
         <v>11</v>
@@ -3710,10 +3706,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="C207" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3717,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3732,7 +3728,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C209" s="4">
         <v>1</v>
@@ -3743,7 +3739,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -3765,7 +3761,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C212" s="4">
         <v>18</v>
@@ -3787,10 +3783,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>2416</v>
+        <v>2446</v>
       </c>
       <c r="C214" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3794,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3809,7 +3805,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>2025</v>
+        <v>2091</v>
       </c>
       <c r="C216" s="4">
         <v>52</v>
@@ -3820,10 +3816,10 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C217" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3853,7 +3849,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3875,10 +3871,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>30162</v>
+        <v>30227</v>
       </c>
       <c r="C222" s="4">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3886,10 +3882,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C223" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3908,7 +3904,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C225" s="4">
         <v>2</v>
@@ -3922,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="C226" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3930,7 +3926,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="C227" s="4">
         <v>14</v>
@@ -3941,10 +3937,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1659</v>
+        <v>1675</v>
       </c>
       <c r="C228" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3952,10 +3948,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>21822</v>
+        <v>22024</v>
       </c>
       <c r="C229" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3963,7 +3959,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C230" s="4">
         <v>3</v>
@@ -3974,7 +3970,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C231" s="4">
         <v>2</v>
@@ -3985,7 +3981,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C232" s="4">
         <v>2</v>
@@ -3996,7 +3992,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C233" s="4">
         <v>1</v>
@@ -4007,10 +4003,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C234" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4021,7 +4017,7 @@
         <v>1332</v>
       </c>
       <c r="C235" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4029,7 +4025,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -4040,10 +4036,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>3331</v>
+        <v>3392</v>
       </c>
       <c r="C237" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4051,10 +4047,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2838</v>
+        <v>2861</v>
       </c>
       <c r="C238" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4062,7 +4058,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C239" s="4">
         <v>4</v>
@@ -4073,7 +4069,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -4087,7 +4083,7 @@
         <v>498</v>
       </c>
       <c r="C241" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,10 +4091,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>6921</v>
+        <v>7119</v>
       </c>
       <c r="C242" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4106,7 +4102,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="C243" s="4">
         <v>25</v>
@@ -4117,7 +4113,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4128,7 +4124,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="C245" s="4">
         <v>11</v>
@@ -4139,7 +4135,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -4150,10 +4146,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="C247" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4161,10 +4157,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>5930</v>
+        <v>5949</v>
       </c>
       <c r="C248" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4172,10 +4168,10 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C249" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4183,7 +4179,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -4194,7 +4190,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C251" s="4">
         <v>6</v>
@@ -4205,7 +4201,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4216,10 +4212,10 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C253" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4227,7 +4223,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C254" s="4">
         <v>4</v>
@@ -4238,7 +4234,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C255" s="4">
         <v>2</v>
@@ -4249,7 +4245,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C256" s="4">
         <v>5</v>
@@ -4271,10 +4267,10 @@
         <v>259</v>
       </c>
       <c r="B258" s="4">
-        <v>459887</v>
+        <v>467485</v>
       </c>
       <c r="C258" s="4">
-        <v>7497</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
@@ -4300,8 +4296,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4334,10 +4330,10 @@
         <v>330</v>
       </c>
       <c r="B3" s="14">
-        <v>14786</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.3876</v>
+        <v>14839</v>
+      </c>
+      <c r="C3" s="20">
+        <v>38.097560975999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4345,10 +4341,10 @@
         <v>331</v>
       </c>
       <c r="B4" s="14">
-        <v>22511</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.59019999999999995</v>
+        <v>23247</v>
+      </c>
+      <c r="C4" s="20">
+        <v>59.684210526000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4356,10 +4352,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="14">
-        <v>847</v>
-      </c>
-      <c r="C5" s="21">
-        <v>2.2200000000000001E-2</v>
+        <v>864</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2.2182284980999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4367,7 +4363,7 @@
         <v>259</v>
       </c>
       <c r="B6" s="14">
-        <v>38144</v>
+        <v>38950</v>
       </c>
       <c r="C6" s="15">
         <v>100</v>
@@ -4412,8 +4408,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4446,10 +4442,10 @@
         <v>334</v>
       </c>
       <c r="B3" s="14">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C3" s="20">
-        <v>1.8639890939999999</v>
+        <v>1.8382541720000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4457,10 +4453,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="14">
-        <v>5444</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.14269999999999999</v>
+        <v>5674</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14.567394094999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4468,10 +4464,10 @@
         <v>336</v>
       </c>
       <c r="B5" s="14">
-        <v>15165</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.39760000000000001</v>
+        <v>15453</v>
+      </c>
+      <c r="C5" s="20">
+        <v>39.673940950000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4479,10 +4475,10 @@
         <v>337</v>
       </c>
       <c r="B6" s="14">
-        <v>171</v>
-      </c>
-      <c r="C6" s="21">
-        <v>4.4999999999999997E-3</v>
+        <v>172</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.44159178430000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4490,10 +4486,10 @@
         <v>338</v>
       </c>
       <c r="B7" s="14">
-        <v>10268</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.26919999999999999</v>
+        <v>10530</v>
+      </c>
+      <c r="C7" s="20">
+        <v>27.034659820000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4501,10 +4497,10 @@
         <v>258</v>
       </c>
       <c r="B8" s="14">
-        <v>6385</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.16739999999999999</v>
+        <v>6405</v>
+      </c>
+      <c r="C8" s="20">
+        <v>16.444159178</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,7 +4508,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="14">
-        <v>38144</v>
+        <v>38950</v>
       </c>
       <c r="C9" s="15">
         <v>100</v>
@@ -4557,8 +4553,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4593,8 +4589,8 @@
       <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
-        <v>2.9999999999999997E-4</v>
+      <c r="C3" s="20">
+        <v>2.56311675E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4604,8 +4600,8 @@
       <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
-        <v>5.0000000000000001E-4</v>
+      <c r="C4" s="20">
+        <v>5.1262334999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4613,10 +4609,10 @@
         <v>316</v>
       </c>
       <c r="B5" s="14">
-        <v>7</v>
-      </c>
-      <c r="C5" s="21">
-        <v>8.9999999999999998E-4</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.10252467</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4624,10 +4620,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="14">
-        <v>60</v>
-      </c>
-      <c r="C6" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.78175060870000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4635,10 +4631,10 @@
         <v>318</v>
       </c>
       <c r="B7" s="14">
-        <v>154</v>
-      </c>
-      <c r="C7" s="21">
-        <v>2.0500000000000001E-2</v>
+        <v>161</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2.0633089836999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4646,10 +4642,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="14">
-        <v>405</v>
-      </c>
-      <c r="C8" s="21">
-        <v>5.3999999999999999E-2</v>
+        <v>421</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5.3953607586999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4657,10 +4653,10 @@
         <v>320</v>
       </c>
       <c r="B9" s="14">
-        <v>855</v>
+        <v>885</v>
       </c>
       <c r="C9" s="20">
-        <v>11.404561825</v>
+        <v>11.341791619</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4668,10 +4664,10 @@
         <v>321</v>
       </c>
       <c r="B10" s="14">
-        <v>693</v>
-      </c>
-      <c r="C10" s="21">
-        <v>9.2399999999999996E-2</v>
+        <v>726</v>
+      </c>
+      <c r="C10" s="20">
+        <v>9.3041138023999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4679,10 +4675,10 @@
         <v>322</v>
       </c>
       <c r="B11" s="14">
-        <v>858</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.1144</v>
+        <v>897</v>
+      </c>
+      <c r="C11" s="20">
+        <v>11.495578624</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4690,10 +4686,10 @@
         <v>323</v>
       </c>
       <c r="B12" s="14">
-        <v>977</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.1303</v>
+        <v>1015</v>
+      </c>
+      <c r="C12" s="20">
+        <v>13.007817506</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4701,10 +4697,10 @@
         <v>324</v>
       </c>
       <c r="B13" s="14">
-        <v>925</v>
+        <v>971</v>
       </c>
       <c r="C13" s="20">
-        <v>12.338268641000001</v>
+        <v>12.443931821</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4712,10 +4708,10 @@
         <v>325</v>
       </c>
       <c r="B14" s="14">
-        <v>2557</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.34110000000000001</v>
+        <v>2652</v>
+      </c>
+      <c r="C14" s="20">
+        <v>33.986928104999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4734,7 +4730,7 @@
         <v>259</v>
       </c>
       <c r="B16" s="14">
-        <v>7497</v>
+        <v>7803</v>
       </c>
       <c r="C16" s="15">
         <v>100</v>
@@ -4779,7 +4775,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4813,10 +4809,10 @@
         <v>330</v>
       </c>
       <c r="B3" s="14">
-        <v>3045</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.40620000000000001</v>
+        <v>3179</v>
+      </c>
+      <c r="C3" s="20">
+        <v>40.740740741000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4824,10 +4820,10 @@
         <v>331</v>
       </c>
       <c r="B4" s="14">
-        <v>4452</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.59379999999999999</v>
+        <v>4624</v>
+      </c>
+      <c r="C4" s="20">
+        <v>59.259259258999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4842,7 @@
         <v>259</v>
       </c>
       <c r="B6" s="14">
-        <v>7497</v>
+        <v>7803</v>
       </c>
       <c r="C6" s="15">
         <v>100</v>
@@ -4891,7 +4887,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4925,10 +4921,10 @@
         <v>334</v>
       </c>
       <c r="B3" s="14">
-        <v>180</v>
-      </c>
-      <c r="C3" s="21">
-        <v>2.4E-2</v>
+        <v>184</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2.3580674099999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4936,10 +4932,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="14">
-        <v>971</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.1295</v>
+        <v>1003</v>
+      </c>
+      <c r="C4" s="20">
+        <v>12.854030501</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4947,10 +4943,10 @@
         <v>336</v>
       </c>
       <c r="B5" s="14">
-        <v>3822</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.50980000000000003</v>
+        <v>4009</v>
+      </c>
+      <c r="C5" s="20">
+        <v>51.377675253</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4958,10 +4954,10 @@
         <v>337</v>
       </c>
       <c r="B6" s="14">
-        <v>53</v>
-      </c>
-      <c r="C6" s="21">
-        <v>7.1000000000000004E-3</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.70485710619999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4969,10 +4965,10 @@
         <v>338</v>
       </c>
       <c r="B7" s="14">
-        <v>2467</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.3291</v>
+        <v>2548</v>
+      </c>
+      <c r="C7" s="20">
+        <v>32.654107394999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4982,8 +4978,8 @@
       <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
-        <v>5.0000000000000001E-4</v>
+      <c r="C8" s="20">
+        <v>5.1262334999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4991,7 +4987,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="14">
-        <v>7497</v>
+        <v>7803</v>
       </c>
       <c r="C9" s="15">
         <v>100</v>
@@ -5036,8 +5032,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6940,13 +6936,13 @@
         <v>69920</v>
       </c>
       <c r="D96" s="7">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E96" s="7">
         <v>1649</v>
       </c>
       <c r="F96" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6960,7 +6956,7 @@
         <v>71613</v>
       </c>
       <c r="D97" s="7">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E97" s="7">
         <v>1693</v>
@@ -6980,7 +6976,7 @@
         <v>73553</v>
       </c>
       <c r="D98" s="7">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="E98" s="7">
         <v>1940</v>
@@ -7000,7 +6996,7 @@
         <v>74978</v>
       </c>
       <c r="D99" s="7">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="E99" s="7">
         <v>1425</v>
@@ -7020,7 +7016,7 @@
         <v>75616</v>
       </c>
       <c r="D100" s="7">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="E100" s="7">
         <v>638</v>
@@ -7040,7 +7036,7 @@
         <v>77253</v>
       </c>
       <c r="D101" s="7">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="E101" s="7">
         <v>1637</v>
@@ -7060,7 +7056,7 @@
         <v>79757</v>
       </c>
       <c r="D102" s="7">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E102" s="7">
         <v>2504</v>
@@ -7080,7 +7076,7 @@
         <v>81583</v>
       </c>
       <c r="D103" s="7">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E103" s="7">
         <v>1826</v>
@@ -7100,7 +7096,7 @@
         <v>83680</v>
       </c>
       <c r="D104" s="7">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E104" s="7">
         <v>2097</v>
@@ -7120,7 +7116,7 @@
         <v>86011</v>
       </c>
       <c r="D105" s="7">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E105" s="7">
         <v>2331</v>
@@ -7140,7 +7136,7 @@
         <v>87854</v>
       </c>
       <c r="D106" s="7">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E106" s="7">
         <v>1843</v>
@@ -7160,7 +7156,7 @@
         <v>89108</v>
       </c>
       <c r="D107" s="7">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="E107" s="7">
         <v>1254</v>
@@ -7180,7 +7176,7 @@
         <v>93206</v>
       </c>
       <c r="D108" s="7">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="E108" s="7">
         <v>2622</v>
@@ -7200,7 +7196,7 @@
         <v>96335</v>
       </c>
       <c r="D109" s="7">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E109" s="7">
         <v>3129</v>
@@ -7220,7 +7216,7 @@
         <v>99851</v>
       </c>
       <c r="D110" s="7">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E110" s="7">
         <v>3516</v>
@@ -7240,7 +7236,7 @@
         <v>103305</v>
       </c>
       <c r="D111" s="7">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E111" s="7">
         <v>3454</v>
@@ -7260,7 +7256,7 @@
         <v>107735</v>
       </c>
       <c r="D112" s="7">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="E112" s="7">
         <v>4430</v>
@@ -7280,7 +7276,7 @@
         <v>111601</v>
       </c>
       <c r="D113" s="7">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="E113" s="7">
         <v>3866</v>
@@ -7300,7 +7296,7 @@
         <v>114881</v>
       </c>
       <c r="D114" s="7">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="E114" s="7">
         <v>3280</v>
@@ -7320,7 +7316,7 @@
         <v>120370</v>
       </c>
       <c r="D115" s="7">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="E115" s="7">
         <v>5489</v>
@@ -7340,7 +7336,7 @@
         <v>125921</v>
       </c>
       <c r="D116" s="7">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E116" s="7">
         <v>5551</v>
@@ -7360,7 +7356,7 @@
         <v>131917</v>
       </c>
       <c r="D117" s="7">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E117" s="7">
         <v>5996</v>
@@ -7380,7 +7376,7 @@
         <v>137624</v>
       </c>
       <c r="D118" s="7">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="E118" s="7">
         <v>5707</v>
@@ -7400,7 +7396,7 @@
         <v>143366</v>
       </c>
       <c r="D119" s="7">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="E119" s="7">
         <v>5742</v>
@@ -7420,7 +7416,7 @@
         <v>148723</v>
       </c>
       <c r="D120" s="7">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E120" s="7">
         <v>5357</v>
@@ -7440,7 +7436,7 @@
         <v>153011</v>
       </c>
       <c r="D121" s="7">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E121" s="7">
         <v>4288</v>
@@ -7460,7 +7456,7 @@
         <v>159986</v>
       </c>
       <c r="D122" s="7">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E122" s="7">
         <v>6975</v>
@@ -7480,7 +7476,7 @@
         <v>168062</v>
       </c>
       <c r="D123" s="7">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E123" s="7">
         <v>8076</v>
@@ -7500,13 +7496,13 @@
         <v>175977</v>
       </c>
       <c r="D124" s="7">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="E124" s="7">
         <v>7915</v>
       </c>
       <c r="F124" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7520,13 +7516,13 @@
         <v>183532</v>
       </c>
       <c r="D125" s="7">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="E125" s="7">
         <v>7555</v>
       </c>
       <c r="F125" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7540,7 +7536,7 @@
         <v>191790</v>
       </c>
       <c r="D126" s="7">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="E126" s="7">
         <v>8258</v>
@@ -7560,13 +7556,13 @@
         <v>195239</v>
       </c>
       <c r="D127" s="7">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E127" s="7">
         <v>3449</v>
       </c>
       <c r="F127" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7580,13 +7576,13 @@
         <v>200557</v>
       </c>
       <c r="D128" s="7">
-        <v>3892</v>
+        <v>3899</v>
       </c>
       <c r="E128" s="7">
         <v>5318</v>
       </c>
       <c r="F128" s="7">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7600,13 +7596,13 @@
         <v>210585</v>
       </c>
       <c r="D129" s="7">
-        <v>4038</v>
+        <v>4047</v>
       </c>
       <c r="E129" s="7">
         <v>10028</v>
       </c>
       <c r="F129" s="7">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7620,13 +7616,13 @@
         <v>220564</v>
       </c>
       <c r="D130" s="7">
-        <v>4208</v>
+        <v>4218</v>
       </c>
       <c r="E130" s="7">
         <v>9979</v>
       </c>
       <c r="F130" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7640,7 +7636,7 @@
         <v>230346</v>
       </c>
       <c r="D131" s="7">
-        <v>4367</v>
+        <v>4377</v>
       </c>
       <c r="E131" s="7">
         <v>9782</v>
@@ -7660,13 +7656,13 @@
         <v>240111</v>
       </c>
       <c r="D132" s="7">
-        <v>4542</v>
+        <v>4555</v>
       </c>
       <c r="E132" s="7">
         <v>9765</v>
       </c>
       <c r="F132" s="7">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7680,13 +7676,13 @@
         <v>250462</v>
       </c>
       <c r="D133" s="7">
-        <v>4717</v>
+        <v>4734</v>
       </c>
       <c r="E133" s="7">
         <v>10351</v>
       </c>
       <c r="F133" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7700,13 +7696,13 @@
         <v>258658</v>
       </c>
       <c r="D134" s="7">
-        <v>4908</v>
+        <v>4930</v>
       </c>
       <c r="E134" s="7">
         <v>8196</v>
       </c>
       <c r="F134" s="7">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7720,13 +7716,13 @@
         <v>264313</v>
       </c>
       <c r="D135" s="7">
-        <v>5094</v>
+        <v>5119</v>
       </c>
       <c r="E135" s="7">
         <v>5655</v>
       </c>
       <c r="F135" s="7">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7740,13 +7736,13 @@
         <v>271574</v>
       </c>
       <c r="D136" s="7">
-        <v>5303</v>
+        <v>5333</v>
       </c>
       <c r="E136" s="7">
         <v>10745</v>
       </c>
       <c r="F136" s="7">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7760,13 +7756,13 @@
         <v>282365</v>
       </c>
       <c r="D137" s="7">
-        <v>5508</v>
+        <v>5543</v>
       </c>
       <c r="E137" s="7">
         <v>10791</v>
       </c>
       <c r="F137" s="7">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7780,13 +7776,13 @@
         <v>292656</v>
       </c>
       <c r="D138" s="7">
-        <v>5706</v>
+        <v>5748</v>
       </c>
       <c r="E138" s="7">
         <v>10291</v>
       </c>
       <c r="F138" s="7">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7800,13 +7796,13 @@
         <v>307572</v>
       </c>
       <c r="D139" s="7">
-        <v>5884</v>
+        <v>5934</v>
       </c>
       <c r="E139" s="7">
         <v>10256</v>
       </c>
       <c r="F139" s="7">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7820,13 +7816,13 @@
         <v>317730</v>
       </c>
       <c r="D140" s="7">
-        <v>6038</v>
+        <v>6095</v>
       </c>
       <c r="E140" s="7">
         <v>10158</v>
       </c>
       <c r="F140" s="7">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7840,13 +7836,13 @@
         <v>325030</v>
       </c>
       <c r="D141" s="7">
-        <v>6213</v>
+        <v>6272</v>
       </c>
       <c r="E141" s="7">
         <v>7300</v>
       </c>
       <c r="F141" s="7">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7860,13 +7856,13 @@
         <v>332434</v>
       </c>
       <c r="D142" s="7">
-        <v>6397</v>
+        <v>6465</v>
       </c>
       <c r="E142" s="7">
         <v>7404</v>
       </c>
       <c r="F142" s="7">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7880,13 +7876,13 @@
         <v>341739</v>
       </c>
       <c r="D143" s="7">
-        <v>6564</v>
+        <v>6644</v>
       </c>
       <c r="E143" s="7">
         <v>9305</v>
       </c>
       <c r="F143" s="7">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7900,13 +7896,13 @@
         <v>351618</v>
       </c>
       <c r="D144" s="7">
-        <v>6737</v>
+        <v>6828</v>
       </c>
       <c r="E144" s="7">
         <v>9879</v>
       </c>
       <c r="F144" s="7">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7920,13 +7916,13 @@
         <v>361125</v>
       </c>
       <c r="D145" s="7">
-        <v>6895</v>
+        <v>7005</v>
       </c>
       <c r="E145" s="7">
         <v>9507</v>
       </c>
       <c r="F145" s="7">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7940,13 +7936,13 @@
         <v>369826</v>
       </c>
       <c r="D146" s="7">
-        <v>7035</v>
+        <v>7158</v>
       </c>
       <c r="E146" s="7">
         <v>8701</v>
       </c>
       <c r="F146" s="7">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7960,13 +7956,13 @@
         <v>375846</v>
       </c>
       <c r="D147" s="7">
-        <v>7127</v>
+        <v>7271</v>
       </c>
       <c r="E147" s="7">
         <v>8112</v>
       </c>
       <c r="F147" s="7">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7980,13 +7976,13 @@
         <v>381656</v>
       </c>
       <c r="D148" s="7">
-        <v>7216</v>
+        <v>7376</v>
       </c>
       <c r="E148" s="7">
         <v>5810</v>
       </c>
       <c r="F148" s="7">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8000,13 +7996,13 @@
         <v>385923</v>
       </c>
       <c r="D149" s="7">
-        <v>7296</v>
+        <v>7481</v>
       </c>
       <c r="E149" s="7">
         <v>4267</v>
       </c>
       <c r="F149" s="7">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8020,13 +8016,13 @@
         <v>394265</v>
       </c>
       <c r="D150" s="7">
-        <v>7379</v>
+        <v>7590</v>
       </c>
       <c r="E150" s="7">
         <v>8342</v>
       </c>
       <c r="F150" s="7">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8040,13 +8036,13 @@
         <v>403307</v>
       </c>
       <c r="D151" s="7">
-        <v>7430</v>
+        <v>7654</v>
       </c>
       <c r="E151" s="7">
         <v>9042</v>
       </c>
       <c r="F151" s="7">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8060,13 +8056,13 @@
         <v>412107</v>
       </c>
       <c r="D152" s="7">
-        <v>7459</v>
+        <v>7709</v>
       </c>
       <c r="E152" s="7">
         <v>8800</v>
       </c>
       <c r="F152" s="7">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8080,13 +8076,13 @@
         <v>420946</v>
       </c>
       <c r="D153" s="7">
-        <v>7482</v>
+        <v>7751</v>
       </c>
       <c r="E153" s="7">
         <v>8839</v>
       </c>
       <c r="F153" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8100,13 +8096,13 @@
         <v>430485</v>
       </c>
       <c r="D154" s="7">
-        <v>7490</v>
+        <v>7776</v>
       </c>
       <c r="E154" s="7">
         <v>9539</v>
       </c>
       <c r="F154" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8120,18 +8116,18 @@
         <v>436711</v>
       </c>
       <c r="D155" s="7">
-        <v>7496</v>
+        <v>7796</v>
       </c>
       <c r="E155" s="7">
         <v>6226</v>
       </c>
       <c r="F155" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B156" s="6">
         <v>44046</v>
@@ -8140,13 +8136,13 @@
         <v>442014</v>
       </c>
       <c r="D156" s="7">
-        <v>7496</v>
+        <v>7802</v>
       </c>
       <c r="E156" s="7">
         <v>5839</v>
       </c>
       <c r="F156" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -8160,7 +8156,7 @@
         <v>451181</v>
       </c>
       <c r="D157" s="7">
-        <v>7497</v>
+        <v>7803</v>
       </c>
       <c r="E157" s="7">
         <v>9167</v>
@@ -8179,79 +8175,99 @@
       <c r="C158" s="7">
         <v>459887</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>274</v>
+      <c r="D158" s="7">
+        <v>7803</v>
       </c>
       <c r="E158" s="7">
         <v>8706</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18" t="s">
+      <c r="F158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C159" s="7">
+        <v>467485</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E159" s="7">
+        <v>7598</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-    </row>
-    <row r="162" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+    </row>
+    <row r="162" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A161:F161"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8261,8 +8277,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8287,10 +8303,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>315652.40000000002</v>
+        <v>323803.59999999998</v>
       </c>
       <c r="B3" s="8">
-        <v>136738</v>
+        <v>135878</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.3">
@@ -8311,11 +8327,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -9914,7 +9930,7 @@
         <v>1117274</v>
       </c>
       <c r="E62" s="9">
-        <v>6.6199999999999995E-2</v>
+        <v>6.6236912120929997E-2</v>
       </c>
       <c r="F62" s="8">
         <v>21585</v>
@@ -9940,7 +9956,7 @@
         <v>1150868</v>
       </c>
       <c r="E63" s="9">
-        <v>6.2600000000000003E-2</v>
+        <v>6.2599418158070005E-2</v>
       </c>
       <c r="F63" s="8">
         <v>23620</v>
@@ -9966,7 +9982,7 @@
         <v>1174948</v>
       </c>
       <c r="E64" s="9">
-        <v>6.0299999999999999E-2</v>
+        <v>6.0272963321670002E-2</v>
       </c>
       <c r="F64" s="8">
         <v>24043</v>
@@ -9992,7 +10008,7 @@
         <v>1209187</v>
       </c>
       <c r="E65" s="9">
-        <v>6.4399999999999999E-2</v>
+        <v>6.4378489924740004E-2</v>
       </c>
       <c r="F65" s="8">
         <v>23537</v>
@@ -10018,7 +10034,7 @@
         <v>1218955</v>
       </c>
       <c r="E66" s="12">
-        <v>0.08</v>
+        <v>8.0023118582630004E-2</v>
       </c>
       <c r="F66" s="8">
         <v>20021</v>
@@ -10070,7 +10086,7 @@
         <v>1286139</v>
       </c>
       <c r="E68" s="9">
-        <v>6.6600000000000006E-2</v>
+        <v>6.6629016142149999E-2</v>
       </c>
       <c r="F68" s="8">
         <v>23019</v>
@@ -10096,7 +10112,7 @@
         <v>1302049</v>
       </c>
       <c r="E69" s="9">
-        <v>6.9199999999999998E-2</v>
+        <v>6.9239691807229997E-2</v>
       </c>
       <c r="F69" s="8">
         <v>22046</v>
@@ -10122,7 +10138,7 @@
         <v>1348893</v>
       </c>
       <c r="E70" s="9">
-        <v>6.8500000000000005E-2</v>
+        <v>6.8464816856909999E-2</v>
       </c>
       <c r="F70" s="8">
         <v>23966</v>
@@ -10148,7 +10164,7 @@
         <v>1370131</v>
       </c>
       <c r="E71" s="9">
-        <v>7.0499999999999993E-2</v>
+        <v>7.0522006760149997E-2</v>
       </c>
       <c r="F71" s="8">
         <v>23626</v>
@@ -10174,7 +10190,7 @@
         <v>1404369</v>
       </c>
       <c r="E72" s="9">
-        <v>7.22E-2</v>
+        <v>7.2239317057989999E-2</v>
       </c>
       <c r="F72" s="8">
         <v>23863</v>
@@ -10200,7 +10216,7 @@
         <v>1442950</v>
       </c>
       <c r="E73" s="9">
-        <v>6.1100000000000002E-2</v>
+        <v>6.1077310009760001E-2</v>
       </c>
       <c r="F73" s="8">
         <v>29139</v>
@@ -10252,7 +10268,7 @@
         <v>1499015</v>
       </c>
       <c r="E75" s="9">
-        <v>6.7100000000000007E-2</v>
+        <v>6.7095336844249995E-2</v>
       </c>
       <c r="F75" s="8">
         <v>28727</v>
@@ -10278,7 +10294,7 @@
         <v>1522434</v>
       </c>
       <c r="E76" s="9">
-        <v>6.9400000000000003E-2</v>
+        <v>6.9417073042089994E-2</v>
       </c>
       <c r="F76" s="8">
         <v>29793</v>
@@ -10304,7 +10320,7 @@
         <v>1560537</v>
       </c>
       <c r="E77" s="10">
-        <v>7.4999999999999997E-2</v>
+        <v>7.497728638027E-2</v>
       </c>
       <c r="F77" s="8">
         <v>28774</v>
@@ -10356,7 +10372,7 @@
         <v>1622851</v>
       </c>
       <c r="E79" s="9">
-        <v>8.9399999999999993E-2</v>
+        <v>8.9369161754789997E-2</v>
       </c>
       <c r="F79" s="8">
         <v>29011</v>
@@ -10382,7 +10398,7 @@
         <v>1690124</v>
       </c>
       <c r="E80" s="10">
-        <v>8.7999999999999995E-2</v>
+        <v>8.7959443433230006E-2</v>
       </c>
       <c r="F80" s="8">
         <v>32885</v>
@@ -10434,7 +10450,7 @@
         <v>1767701</v>
       </c>
       <c r="E82" s="9">
-        <v>9.64E-2</v>
+        <v>9.6402615600719999E-2</v>
       </c>
       <c r="F82" s="8">
         <v>35550</v>
@@ -10460,7 +10476,7 @@
         <v>1805642</v>
       </c>
       <c r="E83" s="9">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="F83" s="8">
         <v>37231</v>
@@ -10486,7 +10502,7 @@
         <v>1836037</v>
       </c>
       <c r="E84" s="9">
-        <v>0.1176</v>
+        <v>0.11759188232068001</v>
       </c>
       <c r="F84" s="8">
         <v>35943</v>
@@ -10512,7 +10528,7 @@
         <v>1875197</v>
       </c>
       <c r="E85" s="9">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="F85" s="8">
         <v>39060</v>
@@ -10538,7 +10554,7 @@
         <v>1903661</v>
       </c>
       <c r="E86" s="9">
-        <v>0.1323</v>
+        <v>0.13228718565458999</v>
       </c>
       <c r="F86" s="8">
         <v>37061</v>
@@ -10564,7 +10580,7 @@
         <v>1959617</v>
       </c>
       <c r="E87" s="9">
-        <v>0.1431</v>
+        <v>0.14309405354181001</v>
       </c>
       <c r="F87" s="8">
         <v>35577</v>
@@ -10590,7 +10606,7 @@
         <v>2006724</v>
       </c>
       <c r="E88" s="9">
-        <v>0.13739999999999999</v>
+        <v>0.13739729069508999</v>
       </c>
       <c r="F88" s="8">
         <v>38597</v>
@@ -10616,7 +10632,7 @@
         <v>2061939</v>
       </c>
       <c r="E89" s="9">
-        <v>0.14019999999999999</v>
+        <v>0.14018794670431001</v>
       </c>
       <c r="F89" s="8">
         <v>38856</v>
@@ -10642,7 +10658,7 @@
         <v>2119036</v>
       </c>
       <c r="E90" s="9">
-        <v>0.1358</v>
+        <v>0.13581542048065001</v>
       </c>
       <c r="F90" s="8">
         <v>41670</v>
@@ -10668,7 +10684,7 @@
         <v>2174548</v>
       </c>
       <c r="E91" s="9">
-        <v>0.13320000000000001</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="F91" s="8">
         <v>45209</v>
@@ -10694,7 +10710,7 @@
         <v>2212947</v>
       </c>
       <c r="E92" s="9">
-        <v>0.13919999999999999</v>
+        <v>0.13917844913637001</v>
       </c>
       <c r="F92" s="8">
         <v>45225</v>
@@ -10720,7 +10736,7 @@
         <v>2273591</v>
       </c>
       <c r="E93" s="9">
-        <v>0.13150000000000001</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="F93" s="8">
         <v>49855</v>
@@ -10746,7 +10762,7 @@
         <v>2338098</v>
       </c>
       <c r="E94" s="9">
-        <v>0.13519999999999999</v>
+        <v>0.13517270641306001</v>
       </c>
       <c r="F94" s="8">
         <v>51177</v>
@@ -10772,7 +10788,7 @@
         <v>2371709</v>
       </c>
       <c r="E95" s="10">
-        <v>0.13500000000000001</v>
+        <v>0.13500899750392001</v>
       </c>
       <c r="F95" s="8">
         <v>49220</v>
@@ -10798,7 +10814,7 @@
         <v>2431861</v>
       </c>
       <c r="E96" s="9">
-        <v>0.1351</v>
+        <v>0.13507194500078001</v>
       </c>
       <c r="F96" s="8">
         <v>50286</v>
@@ -10824,7 +10840,7 @@
         <v>2471029</v>
       </c>
       <c r="E97" s="9">
-        <v>0.15029999999999999</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="F97" s="8">
         <v>48109</v>
@@ -10850,7 +10866,7 @@
         <v>2526940</v>
       </c>
       <c r="E98" s="9">
-        <v>0.15559999999999999</v>
+        <v>0.15560343677850999</v>
       </c>
       <c r="F98" s="8">
         <v>48201</v>
@@ -10876,7 +10892,7 @@
         <v>2603903</v>
       </c>
       <c r="E99" s="9">
-        <v>0.14460000000000001</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="F99" s="8">
         <v>53698</v>
@@ -10902,7 +10918,7 @@
         <v>2644496</v>
       </c>
       <c r="E100" s="9">
-        <v>0.15809999999999999</v>
+        <v>0.15812361136340999</v>
       </c>
       <c r="F100" s="8">
         <v>51116</v>
@@ -10928,7 +10944,7 @@
         <v>2710290</v>
       </c>
       <c r="E101" s="9">
-        <v>0.1633</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="F101" s="8">
         <v>51328</v>
@@ -10954,7 +10970,7 @@
         <v>2757859</v>
       </c>
       <c r="E102" s="9">
-        <v>0.16850000000000001</v>
+        <v>0.16849010085123001</v>
       </c>
       <c r="F102" s="8">
         <v>53771</v>
@@ -10980,7 +10996,7 @@
         <v>2820803</v>
       </c>
       <c r="E103" s="9">
-        <v>0.16889999999999999</v>
+        <v>0.16893795062441999</v>
       </c>
       <c r="F103" s="8">
         <v>53913</v>
@@ -11006,7 +11022,7 @@
         <v>2864541</v>
       </c>
       <c r="E104" s="9">
-        <v>0.1681</v>
+        <v>0.16812128576681001</v>
       </c>
       <c r="F104" s="8">
         <v>54784</v>
@@ -11032,7 +11048,7 @@
         <v>2924288</v>
       </c>
       <c r="E105" s="9">
-        <v>0.16889999999999999</v>
+        <v>0.16885085207802</v>
       </c>
       <c r="F105" s="8">
         <v>55235</v>
@@ -11058,7 +11074,7 @@
         <v>2992102</v>
       </c>
       <c r="E106" s="9">
-        <v>0.17430000000000001</v>
+        <v>0.17427396882912999</v>
       </c>
       <c r="F106" s="8">
         <v>53933</v>
@@ -11084,7 +11100,7 @@
         <v>3067620</v>
       </c>
       <c r="E107" s="9">
-        <v>0.1605</v>
+        <v>0.16047266626479001</v>
       </c>
       <c r="F107" s="8">
         <v>59009</v>
@@ -11110,7 +11126,7 @@
         <v>3153623</v>
       </c>
       <c r="E108" s="9">
-        <v>0.15029999999999999</v>
+        <v>0.15034234890015999</v>
       </c>
       <c r="F108" s="8">
         <v>62801</v>
@@ -11136,7 +11152,7 @@
         <v>3207857</v>
       </c>
       <c r="E109" s="9">
-        <v>0.1467</v>
+        <v>0.14669609768938999</v>
       </c>
       <c r="F109" s="8">
         <v>63490</v>
@@ -11162,7 +11178,7 @@
         <v>3269897</v>
       </c>
       <c r="E110" s="9">
-        <v>0.15049999999999999</v>
+        <v>0.15047404550297</v>
       </c>
       <c r="F110" s="8">
         <v>63556</v>
@@ -11188,7 +11204,7 @@
         <v>3331844</v>
       </c>
       <c r="E111" s="9">
-        <v>0.14180000000000001</v>
+        <v>0.14180136768345</v>
       </c>
       <c r="F111" s="8">
         <v>65993</v>
@@ -11214,7 +11230,7 @@
         <v>3396677</v>
       </c>
       <c r="E112" s="10">
-        <v>0.13900000000000001</v>
+        <v>0.13896915023848999</v>
       </c>
       <c r="F112" s="8">
         <v>66400</v>
@@ -11240,7 +11256,7 @@
         <v>3465070</v>
       </c>
       <c r="E113" s="9">
-        <v>0.13730000000000001</v>
+        <v>0.13733884333096999</v>
       </c>
       <c r="F113" s="8">
         <v>66373</v>
@@ -11266,7 +11282,7 @@
         <v>3539452</v>
       </c>
       <c r="E114" s="9">
-        <v>0.13439999999999999</v>
+        <v>0.13435428837808</v>
       </c>
       <c r="F114" s="8">
         <v>66194</v>
@@ -11318,7 +11334,7 @@
         <v>3664679</v>
       </c>
       <c r="E116" s="9">
-        <v>0.13220000000000001</v>
+        <v>0.13215012333230999</v>
       </c>
       <c r="F116" s="8">
         <v>63475</v>
@@ -11344,7 +11360,7 @@
         <v>3714821</v>
       </c>
       <c r="E117" s="9">
-        <v>0.1283</v>
+        <v>0.12825832118000999</v>
       </c>
       <c r="F117" s="8">
         <v>61907</v>
@@ -11370,7 +11386,7 @@
         <v>3777263</v>
       </c>
       <c r="E118" s="9">
-        <v>0.1255</v>
+        <v>0.12549515187721</v>
       </c>
       <c r="F118" s="8">
         <v>62174</v>
@@ -11396,7 +11412,7 @@
         <v>3849040</v>
       </c>
       <c r="E119" s="9">
-        <v>0.12089999999999999</v>
+        <v>0.12090562881898</v>
       </c>
       <c r="F119" s="8">
         <v>63545</v>
@@ -11422,7 +11438,7 @@
         <v>3911270</v>
       </c>
       <c r="E120" s="9">
-        <v>0.1212</v>
+        <v>0.12122305691139</v>
       </c>
       <c r="F120" s="8">
         <v>62546</v>
@@ -11448,7 +11464,7 @@
         <v>3990030</v>
       </c>
       <c r="E121" s="9">
-        <v>0.1205</v>
+        <v>0.12046081718307999</v>
       </c>
       <c r="F121" s="8">
         <v>63105</v>
@@ -11474,7 +11490,7 @@
         <v>4028966</v>
       </c>
       <c r="E122" s="9">
-        <v>0.13120000000000001</v>
+        <v>0.13116308546161001</v>
       </c>
       <c r="F122" s="8">
         <v>59510</v>
@@ -11526,7 +11542,7 @@
         <v>4143342</v>
       </c>
       <c r="E124" s="9">
-        <v>0.13880000000000001</v>
+        <v>0.13881820544123999</v>
       </c>
       <c r="F124" s="8">
         <v>58275</v>
@@ -11552,7 +11568,7 @@
         <v>4177213</v>
       </c>
       <c r="E125" s="9">
-        <v>0.15579999999999999</v>
+        <v>0.15575261544134</v>
       </c>
       <c r="F125" s="8">
         <v>52695</v>
@@ -11568,43 +11584,57 @@
       <c r="A126" s="6">
         <v>44048</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>274</v>
+      <c r="B126" s="8">
+        <v>3944480</v>
+      </c>
+      <c r="C126" s="8">
+        <v>276849</v>
       </c>
       <c r="D126" s="8">
         <v>4221329</v>
       </c>
-      <c r="E126" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
+      <c r="E126" s="9">
+        <v>0.17049246879159999</v>
+      </c>
+      <c r="F126" s="8">
+        <v>47858</v>
+      </c>
+      <c r="G126" s="8">
+        <v>5326</v>
+      </c>
+      <c r="H126" s="8">
+        <v>53184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="8">
+        <v>4263342</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
         <v>287</v>
-      </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-    </row>
-    <row r="129" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>288</v>
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -11614,11 +11644,23 @@
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
     </row>
+    <row r="130" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A128:H128"/>
     <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:H130"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11631,7 +11673,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -11660,7 +11702,7 @@
         <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>118851</v>
+        <v>119495</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11668,7 +11710,7 @@
         <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>4102478</v>
+        <v>4143847</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11676,7 +11718,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="8">
-        <v>4221329</v>
+        <v>4263342</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11701,7 +11743,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -11730,7 +11772,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="8">
-        <v>268978</v>
+        <v>276849</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11738,7 +11780,7 @@
         <v>299</v>
       </c>
       <c r="B4" s="8">
-        <v>14535</v>
+        <v>15364</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11759,12 +11801,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11792,7 +11834,7 @@
         <v>302</v>
       </c>
       <c r="B3" s="4">
-        <v>8455</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11800,7 +11842,7 @@
         <v>303</v>
       </c>
       <c r="B4" s="4">
-        <v>54687</v>
+        <v>56254</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11808,7 +11850,7 @@
         <v>304</v>
       </c>
       <c r="B5" s="4">
-        <v>11328</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11816,7 +11858,7 @@
         <v>305</v>
       </c>
       <c r="B6" s="4">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11824,17 +11866,12 @@
         <v>306</v>
       </c>
       <c r="B7" s="4">
-        <v>6544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
+        <v>6553</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11843,12 +11880,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13240,15 +13277,20 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C127" s="4">
+        <v>8302</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A128:C128"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13261,8 +13303,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13295,10 +13337,10 @@
         <v>314</v>
       </c>
       <c r="B3" s="14">
-        <v>139</v>
-      </c>
-      <c r="C3" s="21">
-        <v>3.5999999999999999E-3</v>
+        <v>141</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.36200256739999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13306,10 +13348,10 @@
         <v>315</v>
       </c>
       <c r="B4" s="14">
-        <v>636</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1.67E-2</v>
+        <v>641</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.6456996149000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13317,10 +13359,10 @@
         <v>316</v>
       </c>
       <c r="B5" s="14">
-        <v>1623</v>
-      </c>
-      <c r="C5" s="21">
-        <v>4.2500000000000003E-2</v>
+        <v>1636</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4.2002567394000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13328,10 +13370,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="14">
-        <v>7062</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.18509999999999999</v>
+        <v>7196</v>
+      </c>
+      <c r="C6" s="20">
+        <v>18.474967908</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13339,10 +13381,10 @@
         <v>318</v>
       </c>
       <c r="B7" s="14">
-        <v>7557</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.1981</v>
+        <v>7765</v>
+      </c>
+      <c r="C7" s="20">
+        <v>19.935815148</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13350,10 +13392,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="14">
-        <v>7041</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.18459999999999999</v>
+        <v>7243</v>
+      </c>
+      <c r="C8" s="20">
+        <v>18.595635430000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13361,10 +13403,10 @@
         <v>320</v>
       </c>
       <c r="B9" s="14">
-        <v>6513</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.17069999999999999</v>
+        <v>6666</v>
+      </c>
+      <c r="C9" s="20">
+        <v>17.114249037</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13372,10 +13414,10 @@
         <v>321</v>
       </c>
       <c r="B10" s="14">
-        <v>2567</v>
-      </c>
-      <c r="C10" s="21">
-        <v>6.7299999999999999E-2</v>
+        <v>2610</v>
+      </c>
+      <c r="C10" s="20">
+        <v>6.7008985879000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13383,10 +13425,10 @@
         <v>322</v>
       </c>
       <c r="B11" s="14">
-        <v>1853</v>
-      </c>
-      <c r="C11" s="21">
-        <v>4.8599999999999997E-2</v>
+        <v>1877</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4.8189987163000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13394,10 +13436,10 @@
         <v>323</v>
       </c>
       <c r="B12" s="14">
-        <v>1113</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2.92E-2</v>
+        <v>1127</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2.8934531451000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13405,10 +13447,10 @@
         <v>324</v>
       </c>
       <c r="B13" s="14">
-        <v>746</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1.9599999999999999E-2</v>
+        <v>753</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1.9332477535000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13416,10 +13458,10 @@
         <v>325</v>
       </c>
       <c r="B14" s="14">
-        <v>1263</v>
-      </c>
-      <c r="C14" s="21">
-        <v>3.3099999999999997E-2</v>
+        <v>1264</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3.2451861361000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13429,8 +13471,8 @@
       <c r="B15" s="14">
         <v>31</v>
       </c>
-      <c r="C15" s="21">
-        <v>8.0000000000000004E-4</v>
+      <c r="C15" s="20">
+        <v>7.9589216899999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -13438,7 +13480,7 @@
         <v>259</v>
       </c>
       <c r="B16" s="14">
-        <v>38144</v>
+        <v>38950</v>
       </c>
       <c r="C16" s="15">
         <v>100</v>
